--- a/project_manage_student/Manage_Student/App/uploads/DataStudentHistory-2022-2023.xlsx
+++ b/project_manage_student/Manage_Student/App/uploads/DataStudentHistory-2022-2023.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,7 +557,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Nguyễn Quang Anh</t>
+          <t>Nguyễn Đức An</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -594,7 +594,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Nguyễn Huỳnh Anh</t>
+          <t>Nguyễn Phúc An</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -631,7 +631,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Nguyễn Thế Anh</t>
+          <t>Nguyễn Quang Anh</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -668,7 +668,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Nguyễn Hoàng Anh</t>
+          <t>Nguyễn Huỳnh Anh</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -705,7 +705,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Nguyễn Tuấn Anh</t>
+          <t>Nguyễn Thế Anh</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -742,7 +742,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Nguyễn Gia Bảo</t>
+          <t>Nguyễn Hoàng Anh</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -779,7 +779,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Nguyễn Thái Bảo</t>
+          <t>Nguyễn Tuấn Anh</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -816,7 +816,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Nguyễn Quốc Bảo</t>
+          <t>Nguyễn Gia Bảo</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -853,7 +853,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Nguyễn Duy Bảo</t>
+          <t>Nguyễn Thái Bảo</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -890,7 +890,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Nguyễn Gia Bách</t>
+          <t>Nguyễn Quốc Bảo</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -927,7 +927,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Nguyễn Hoàng Bách</t>
+          <t>Nguyễn Duy Bảo</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -964,7 +964,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Nguyễn Quang Bách</t>
+          <t>Nguyễn Gia Bách</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -1001,7 +1001,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Nguyễn Xuân Bác</t>
+          <t>Nguyễn Hoàng Bách</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -1038,7 +1038,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Nguyễn Đức Bình</t>
+          <t>Nguyễn Quang Bách</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -1075,7 +1075,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Nguyễn Quang Duy</t>
+          <t>Nguyễn Xuân Bác</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -1085,12 +1085,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Lý</t>
+          <t>Toán</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>10A3</t>
+          <t>10A1</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1104,80 +1104,6 @@
         </is>
       </c>
       <c r="I18" t="inlineStr">
-        <is>
-          <t>2022-2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Nguyễn Nhật Duy</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="n">
-        <v>10</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Lý</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>10A3</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>K10</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>HK1</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>2022-2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Nguyễn Đức Duy</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="n">
-        <v>10</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Lý</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>10A3</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>K10</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>HK1</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
         <is>
           <t>2022-2023</t>
         </is>
